--- a/GoFundMe.xlsx
+++ b/GoFundMe.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My\Desktop\SOFTWARE TESTTING\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF95287E-AEC3-4F99-9338-EF2A8F7F1689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C80223-B26E-4597-A523-E124F8D3E29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{263C723D-CBEC-4B3A-9D84-47021CC174EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{263C723D-CBEC-4B3A-9D84-47021CC174EA}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="SCENARIO" sheetId="2" r:id="rId2"/>
     <sheet name="TESTCASE" sheetId="3" r:id="rId3"/>
+    <sheet name="Bug_Report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="525">
   <si>
     <t>Website</t>
   </si>
@@ -1282,6 +1283,348 @@
   </si>
   <si>
     <t>Dharati Jethwa</t>
+  </si>
+  <si>
+    <t>redirect propely to the fundrising category page</t>
+  </si>
+  <si>
+    <t>6.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check how to start goFundMe link workking </t>
+  </si>
+  <si>
+    <t>link redirect to the start page</t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t>check Start a GoFundMe button working</t>
+  </si>
+  <si>
+    <t>buttons should working and go to the sign in page</t>
+  </si>
+  <si>
+    <t>6.2.1.2</t>
+  </si>
+  <si>
+    <t>check sign in done peoperly by filling all the information</t>
+  </si>
+  <si>
+    <t>sign in done successfully</t>
+  </si>
+  <si>
+    <t>6.2.2</t>
+  </si>
+  <si>
+    <t>all buttons work properly and redirect to the related page</t>
+  </si>
+  <si>
+    <t>check  fundrising categories menu url</t>
+  </si>
+  <si>
+    <t>check  team fundrising  category url</t>
+  </si>
+  <si>
+    <t>redirect to the fundrising tips page</t>
+  </si>
+  <si>
+    <t>check fundrising blog category url</t>
+  </si>
+  <si>
+    <t>redirect to the blog page</t>
+  </si>
+  <si>
+    <t>6.4.1</t>
+  </si>
+  <si>
+    <t>button should working</t>
+  </si>
+  <si>
+    <t>6.4.2</t>
+  </si>
+  <si>
+    <t>check search box  search properly working</t>
+  </si>
+  <si>
+    <t>search box should working</t>
+  </si>
+  <si>
+    <t>6.4.2.1</t>
+  </si>
+  <si>
+    <t>check search by valid inputs</t>
+  </si>
+  <si>
+    <t>fundrising</t>
+  </si>
+  <si>
+    <t>search propely</t>
+  </si>
+  <si>
+    <t>6.4.2.2</t>
+  </si>
+  <si>
+    <t>check search by numbers</t>
+  </si>
+  <si>
+    <t>6.4.2.3</t>
+  </si>
+  <si>
+    <t>check search by special character with characters</t>
+  </si>
+  <si>
+    <t>funds@dffg</t>
+  </si>
+  <si>
+    <t>6.4.3</t>
+  </si>
+  <si>
+    <t>check all avilable links working url</t>
+  </si>
+  <si>
+    <t>links should working propely</t>
+  </si>
+  <si>
+    <t>check fundrising tip category url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link should working   </t>
+  </si>
+  <si>
+    <t>check fundrising ideas category</t>
+  </si>
+  <si>
+    <t>redirect to the fundraising-ideas page</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>check start a GoFundMe button working url</t>
+  </si>
+  <si>
+    <t>6.6.2</t>
+  </si>
+  <si>
+    <t>check all accordian available on fundrising idea page</t>
+  </si>
+  <si>
+    <t>all accordian show content properly</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>6.6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link should working properly   </t>
+  </si>
+  <si>
+    <t>check all three  links url  work propely</t>
+  </si>
+  <si>
+    <t>check GoFundsmeReview button url working</t>
+  </si>
+  <si>
+    <t>T_6.12</t>
+  </si>
+  <si>
+    <t>T_6.13</t>
+  </si>
+  <si>
+    <t>T_6.14</t>
+  </si>
+  <si>
+    <t>T_6.15</t>
+  </si>
+  <si>
+    <t>T_6.16</t>
+  </si>
+  <si>
+    <t>T_6.17</t>
+  </si>
+  <si>
+    <t>T_6.18</t>
+  </si>
+  <si>
+    <t>T_6.19</t>
+  </si>
+  <si>
+    <t>T_6.20</t>
+  </si>
+  <si>
+    <t>T_6.21</t>
+  </si>
+  <si>
+    <t>T_6.22</t>
+  </si>
+  <si>
+    <t>T_6.23</t>
+  </si>
+  <si>
+    <t>T_6.24</t>
+  </si>
+  <si>
+    <t>T_6.25</t>
+  </si>
+  <si>
+    <t>T_6.26</t>
+  </si>
+  <si>
+    <t>T_6.27</t>
+  </si>
+  <si>
+    <t>T_6.28</t>
+  </si>
+  <si>
+    <t>T_6.29</t>
+  </si>
+  <si>
+    <t>T_6.30</t>
+  </si>
+  <si>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t>testcase id</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Defect Description</t>
+  </si>
+  <si>
+    <t>Functionality Id</t>
+  </si>
+  <si>
+    <t>Reproduced step</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>Defect types</t>
+  </si>
+  <si>
+    <t>Defect Saverity</t>
+  </si>
+  <si>
+    <t>Defect priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TesterName </t>
+  </si>
+  <si>
+    <t>Attacment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>logo is proerly  not working</t>
+  </si>
+  <si>
+    <t>BUG_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While clicking on logo  its not responding </t>
+  </si>
+  <si>
+    <t>1.https://www.gofundme.com/   2.press enter                                3.click on logo</t>
+  </si>
+  <si>
+    <t>functionality</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>redirect to the home page or refresh the page</t>
+  </si>
+  <si>
+    <t>its not perform any action or  no responding</t>
+  </si>
+  <si>
+    <t>Dharti</t>
+  </si>
+  <si>
+    <t>BUG_002</t>
+  </si>
+  <si>
+    <t>inseting invalid inputs not displaying error message</t>
+  </si>
+  <si>
+    <t>error message not displaying for invalid inputs</t>
+  </si>
+  <si>
+    <t>BUG_003</t>
+  </si>
+  <si>
+    <t>while login via invalid email and password error message should display</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>BUG_004</t>
+  </si>
+  <si>
+    <t>check create account  for invalid inputs</t>
+  </si>
+  <si>
+    <t>while creating account using invalid firstname and password error message should display</t>
+  </si>
+  <si>
+    <t>email:dharti.j20@gmail.com  Password:Dha@2006</t>
+  </si>
+  <si>
+    <t>firstname:d222 lastname :55222</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>error message not display while login with invalid inputs</t>
+  </si>
+  <si>
+    <t>BUG_005</t>
+  </si>
+  <si>
+    <t>firstname:          lastname:</t>
+  </si>
+  <si>
+    <t>While creating  account using all null fields error message should display</t>
+  </si>
+  <si>
+    <t>error message not displaywhile adding invalid credentials</t>
+  </si>
+  <si>
+    <t>error message  not displaying while leave all field blank</t>
+  </si>
+  <si>
+    <t>BUG_006</t>
+  </si>
+  <si>
+    <t>check create account  for all null fields</t>
+  </si>
+  <si>
+    <t>BUG_007</t>
+  </si>
+  <si>
+    <t>email:                 password:</t>
+  </si>
+  <si>
+    <t>While login  account using all null fields error message should display</t>
+  </si>
+  <si>
+    <t>error message not display while login with null inputs</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1524,13 +1867,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1849,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA260A9-77BC-47B2-BBA6-9769BF1D7B6B}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC38C005-3798-4B24-A5C6-682AEB63249A}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:H100"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,7 +2337,7 @@
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" style="6" customWidth="1"/>
   </cols>
@@ -3034,7 +3385,7 @@
       </c>
     </row>
     <row r="75" spans="4:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="4" t="s">
         <v>344</v>
       </c>
       <c r="E75" s="18" t="s">
@@ -3130,7 +3481,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D83" s="42" t="s">
+      <c r="D83" s="41" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="18" t="s">
@@ -3211,7 +3562,7 @@
       <c r="C90" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D90" s="41">
+      <c r="D90" s="40">
         <v>6.1</v>
       </c>
       <c r="E90" s="18" t="s">
@@ -3222,7 +3573,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="42" t="s">
         <v>371</v>
       </c>
       <c r="E91" s="18" t="s">
@@ -3233,7 +3584,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="42" t="s">
         <v>374</v>
       </c>
       <c r="E92" s="18" t="s">
@@ -3255,7 +3606,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="42" t="s">
         <v>380</v>
       </c>
       <c r="E94" s="18" t="s">
@@ -3288,7 +3639,7 @@
       </c>
     </row>
     <row r="97" spans="4:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="42" t="s">
         <v>394</v>
       </c>
       <c r="E97" s="18" t="s">
@@ -3310,7 +3661,7 @@
       </c>
     </row>
     <row r="99" spans="4:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="42" t="s">
         <v>399</v>
       </c>
       <c r="E99" s="18" t="s">
@@ -3329,12 +3680,243 @@
       </c>
       <c r="H100" s="8" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D101" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D102" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F102" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D103" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="F103" t="s">
+        <v>155</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D104" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D105" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D106" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D107" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D108" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D109" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D110" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="G110" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D111" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="G111" s="7">
+        <v>123454</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D112" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="G112" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D113" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D114" s="45">
+        <v>6.5</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D115" s="45">
+        <v>6.6</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D116" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D117" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D118" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D119" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="F119" t="s">
+        <v>155</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G47" r:id="rId1" xr:uid="{23F4DEBF-0514-4142-A7F5-CCE9668ED7D1}"/>
     <hyperlink ref="G69" r:id="rId2" xr:uid="{EC2256A3-2D3D-4918-9A7E-6ECBB6C989DF}"/>
+    <hyperlink ref="G112" r:id="rId3" xr:uid="{5716942B-84B5-47F5-B6AE-90326B96E694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3342,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1196920-83D5-4428-8ABC-C2082724E1CC}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="C99" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,7 +4034,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>24</v>
+        <v>491</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>91</v>
@@ -4462,7 +5044,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D41" s="16" t="s">
         <v>179</v>
       </c>
@@ -4926,7 +5508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D60" s="33" t="s">
         <v>246</v>
       </c>
@@ -4952,7 +5534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D61" s="33" t="s">
         <v>249</v>
       </c>
@@ -5302,7 +5884,7 @@
       </c>
     </row>
     <row r="75" spans="4:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="4" t="s">
         <v>344</v>
       </c>
       <c r="E75" s="18" t="s">
@@ -5498,7 +6080,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="D83" s="42" t="s">
+      <c r="D83" s="41" t="s">
         <v>186</v>
       </c>
       <c r="E83" s="18" t="s">
@@ -5677,7 +6259,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="42" t="s">
         <v>371</v>
       </c>
       <c r="E90" s="18" t="s">
@@ -5700,7 +6282,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="42" t="s">
         <v>374</v>
       </c>
       <c r="E91" s="18" t="s">
@@ -5746,7 +6328,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="42" t="s">
         <v>380</v>
       </c>
       <c r="E93" s="18" t="s">
@@ -5815,7 +6397,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="42" t="s">
         <v>394</v>
       </c>
       <c r="E96" s="18" t="s">
@@ -5861,7 +6443,7 @@
       </c>
     </row>
     <row r="98" spans="4:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D98" s="43" t="s">
+      <c r="D98" s="42" t="s">
         <v>399</v>
       </c>
       <c r="E98" s="18" t="s">
@@ -5903,6 +6485,464 @@
         <v>89</v>
       </c>
       <c r="L99" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D100" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K100" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D101" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F101" t="s">
+        <v>155</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K101" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D102" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="F102" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K102" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L102" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D103" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K103" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L103" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D104" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K104" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L104" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D105" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K105" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L105" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D106" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K106" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L106" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D107" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K107" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L107" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D108" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L108" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D109" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="G109" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L109" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D110" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="G110" s="7">
+        <v>123454</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L110" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D111" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="G111" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K111" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L111" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D112" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L112" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D113" s="45">
+        <v>6.5</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L113" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D114" s="45">
+        <v>6.6</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K114" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L114" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D115" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="J115" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K115" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L115" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="4:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D116" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K116" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L116" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D117" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="I117" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="J117" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K117" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L117" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D118" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="F118" t="s">
+        <v>155</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="J118" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L118" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5910,7 +6950,351 @@
   <hyperlinks>
     <hyperlink ref="G47" r:id="rId1" xr:uid="{1D6AF83B-1114-4688-B420-998A1EC7A4B5}"/>
     <hyperlink ref="G69" r:id="rId2" xr:uid="{FBAB2BF9-6360-4BD2-A520-E893B22343E3}"/>
+    <hyperlink ref="G111" r:id="rId3" xr:uid="{356A9911-10FD-41F9-A225-B1F1082870B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322A279A-B8F9-4101-AB7D-3EAD82FF658F}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>488</v>
+      </c>
+      <c r="N1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="M2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I3" t="s">
+        <v>496</v>
+      </c>
+      <c r="J3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="M3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="H4" t="s">
+        <v>524</v>
+      </c>
+      <c r="I4" t="s">
+        <v>505</v>
+      </c>
+      <c r="J4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="M4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I5" t="s">
+        <v>511</v>
+      </c>
+      <c r="J5" t="s">
+        <v>511</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="M5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="H6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" t="s">
+        <v>505</v>
+      </c>
+      <c r="J6" t="s">
+        <v>505</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="M6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" t="s">
+        <v>505</v>
+      </c>
+      <c r="J7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="M7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="H8" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" t="s">
+        <v>505</v>
+      </c>
+      <c r="J8" t="s">
+        <v>505</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="M8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>